--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value791.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value791.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.023394514600112</v>
+        <v>1.790495038032532</v>
       </c>
       <c r="B1">
-        <v>3.377251626374145</v>
+        <v>4.144339084625244</v>
       </c>
       <c r="C1">
-        <v>2.855360926324709</v>
+        <v>1.477611064910889</v>
       </c>
       <c r="D1">
-        <v>2.140796567599097</v>
+        <v>0.858174741268158</v>
       </c>
       <c r="E1">
-        <v>1.257397337313008</v>
+        <v>0.4637786448001862</v>
       </c>
     </row>
   </sheetData>
